--- a/Excel/data/starwars.xlsx
+++ b/Excel/data/starwars.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryvanvalkenburg/NSS/DDA1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B996D39-A8F4-3241-8F2D-45DFE2E5CD5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{5B996D39-A8F4-3241-8F2D-45DFE2E5CD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BA29A00-AAB2-4334-A6AC-37E132438471}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
+    <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="264">
   <si>
     <t>name</t>
   </si>
@@ -40,7 +54,7 @@
     <t>eye_color</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>age</t>
   </si>
   <si>
     <t>homeworld</t>
@@ -64,9 +78,6 @@
     <t>blue</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>Tatooine</t>
   </si>
   <si>
@@ -130,9 +141,6 @@
     <t>light</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>Alderaan</t>
   </si>
   <si>
@@ -238,9 +246,6 @@
     <t>orange</t>
   </si>
   <si>
-    <t>hermaphrodite</t>
-  </si>
-  <si>
     <t>Nal Hutta</t>
   </si>
   <si>
@@ -793,14 +798,41 @@
     <t>Padmé Amidala</t>
   </si>
   <si>
-    <t>age</t>
+    <t>The character's name</t>
+  </si>
+  <si>
+    <t>Height in cm, NA if unknown</t>
+  </si>
+  <si>
+    <t>Mass in kg, NA if unknown</t>
+  </si>
+  <si>
+    <t>Hair color(s)</t>
+  </si>
+  <si>
+    <t>Skin color(s)</t>
+  </si>
+  <si>
+    <t>Eye color(s)</t>
+  </si>
+  <si>
+    <t>Age in (Earth) years</t>
+  </si>
+  <si>
+    <t>Planet of origin, NA if unknown</t>
+  </si>
+  <si>
+    <t>Species name</t>
+  </si>
+  <si>
+    <t>Films the character appears in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -933,6 +965,17 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1277,8 +1320,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1338,7 +1383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1626,23 +1671,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="125.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1662,217 +1712,231 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>172</v>
+      </c>
+      <c r="C2">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>202</v>
+      </c>
+      <c r="C5">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>41.9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>167</v>
-      </c>
-      <c r="C4">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>112</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>96</v>
-      </c>
-      <c r="C5">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>202</v>
-      </c>
-      <c r="C6">
-        <v>136</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>41.9</v>
-      </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>178</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>165</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>150</v>
-      </c>
-      <c r="C7">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8">
-        <v>178</v>
-      </c>
-      <c r="C8">
-        <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1881,164 +1945,149 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>97</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="B9">
-        <v>165</v>
-      </c>
-      <c r="C9">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>183</v>
+      </c>
+      <c r="C10">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>97</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C12">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>57</v>
+        <v>41.9</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
         <v>51</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13">
-        <v>188</v>
-      </c>
-      <c r="C13">
-        <v>84</v>
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -2047,2682 +2096,2519 @@
         <v>13</v>
       </c>
       <c r="G13">
-        <v>41.9</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>180</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+        <v>228</v>
+      </c>
+      <c r="C14">
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>173</v>
+      </c>
+      <c r="C16">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15">
-        <v>228</v>
-      </c>
-      <c r="C15">
-        <v>112</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>200</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>175</v>
+      </c>
+      <c r="C17">
+        <v>1358</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17">
+        <v>600</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <v>170</v>
+      </c>
+      <c r="C18">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
         <v>61</v>
       </c>
-      <c r="K15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16">
-        <v>180</v>
-      </c>
-      <c r="C16">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17">
-        <v>173</v>
-      </c>
-      <c r="C17">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18">
-        <v>175</v>
-      </c>
-      <c r="C18">
-        <v>1358</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18">
-        <v>600</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>76</v>
       </c>
       <c r="B19">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C19">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
         <v>77</v>
       </c>
-      <c r="G19">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>896</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
         <v>79</v>
       </c>
-      <c r="B20">
-        <v>180</v>
-      </c>
-      <c r="C20">
-        <v>110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>81</v>
       </c>
       <c r="B21">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>896</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>78.2</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>31.5</v>
+      </c>
+      <c r="H22" t="s">
         <v>86</v>
       </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22">
-        <v>82</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>88</v>
       </c>
       <c r="B23">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C23">
-        <v>78.2</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>31.5</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>91</v>
       </c>
       <c r="B24">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C24">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
         <v>92</v>
       </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>94</v>
       </c>
       <c r="B25">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C25">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G25">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C26">
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G26">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>180</v>
+      </c>
+      <c r="C27">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
         <v>101</v>
       </c>
-      <c r="B27">
-        <v>175</v>
-      </c>
-      <c r="C27">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
       <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="G27">
-        <v>37</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28">
-        <v>180</v>
-      </c>
-      <c r="C28">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" t="s">
-        <v>71</v>
-      </c>
       <c r="G28">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29">
-        <v>150</v>
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
         <v>110</v>
       </c>
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="B30">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="I30" t="s">
         <v>112</v>
       </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
       <c r="J30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>113</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>116</v>
       </c>
       <c r="B32">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="C32">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
         <v>117</v>
       </c>
-      <c r="J32" t="s">
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>118</v>
       </c>
-      <c r="K32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>191</v>
+      </c>
+      <c r="C33">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
         <v>119</v>
       </c>
-      <c r="B33">
-        <v>193</v>
-      </c>
-      <c r="C33">
-        <v>89</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="G33">
-        <v>92</v>
-      </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34">
-        <v>191</v>
-      </c>
-      <c r="C34">
-        <v>90</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34">
+        <v>91</v>
+      </c>
+      <c r="H34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35">
+        <v>196</v>
+      </c>
+      <c r="C35">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
         <v>26</v>
       </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" t="s">
-        <v>123</v>
-      </c>
-      <c r="J34" t="s">
-        <v>124</v>
-      </c>
-      <c r="K34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="I35" t="s">
         <v>125</v>
       </c>
-      <c r="B35">
-        <v>170</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35">
-        <v>91</v>
-      </c>
-      <c r="H35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>126</v>
       </c>
-      <c r="J35" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>127</v>
       </c>
       <c r="B36">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C36">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="J36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>128</v>
       </c>
-      <c r="K36" t="s">
+      <c r="B37">
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B38">
+        <v>183</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
         <v>130</v>
       </c>
-      <c r="B37">
-        <v>224</v>
-      </c>
-      <c r="C37">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" t="s">
-        <v>128</v>
-      </c>
-      <c r="K37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B39">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
         <v>131</v>
       </c>
-      <c r="B38">
-        <v>206</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" t="s">
-        <v>128</v>
-      </c>
-      <c r="K38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
         <v>132</v>
       </c>
-      <c r="B39">
+      <c r="I39" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40">
+        <v>112</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41">
         <v>183</v>
       </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>62</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40">
-        <v>137</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" t="s">
-        <v>135</v>
-      </c>
-      <c r="J40" t="s">
-        <v>136</v>
-      </c>
-      <c r="K40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41">
-        <v>112</v>
-      </c>
-      <c r="C41">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42">
-        <v>183</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
-      </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43">
+        <v>175</v>
+      </c>
+      <c r="C43">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>54</v>
+      </c>
+      <c r="H43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" t="s">
         <v>143</v>
       </c>
-      <c r="B43">
-        <v>163</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43">
-        <v>72</v>
-      </c>
-      <c r="H43" t="s">
-        <v>36</v>
-      </c>
-      <c r="I43" t="s">
-        <v>15</v>
-      </c>
       <c r="J43" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>144</v>
       </c>
       <c r="B44">
-        <v>175</v>
-      </c>
-      <c r="C44">
-        <v>80</v>
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44">
-        <v>54</v>
+        <v>145</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45">
+        <v>178</v>
+      </c>
+      <c r="C45">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45">
+        <v>48</v>
+      </c>
+      <c r="H45" t="s">
         <v>146</v>
       </c>
-      <c r="K44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="I45" t="s">
         <v>147</v>
       </c>
-      <c r="B45">
-        <v>180</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" t="s">
-        <v>148</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>149</v>
       </c>
-      <c r="J45" t="s">
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
         <v>150</v>
       </c>
-      <c r="K45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>94</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
         <v>151</v>
       </c>
-      <c r="B46">
-        <v>178</v>
-      </c>
-      <c r="C46">
-        <v>55</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46">
-        <v>48</v>
-      </c>
-      <c r="H46" t="s">
-        <v>36</v>
-      </c>
       <c r="I46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J46" t="s">
-        <v>150</v>
-      </c>
-      <c r="K46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>153</v>
       </c>
       <c r="B47">
-        <v>94</v>
-      </c>
-      <c r="C47">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
         <v>45</v>
       </c>
-      <c r="D47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" t="s">
-        <v>21</v>
-      </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="I47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
-      </c>
-      <c r="K47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>156</v>
       </c>
       <c r="B48">
-        <v>122</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
+        <v>163</v>
+      </c>
+      <c r="C48">
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="I48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J48" t="s">
-        <v>158</v>
-      </c>
-      <c r="K48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B49">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C49">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="G49">
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I49" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="J49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
         <v>162</v>
       </c>
-      <c r="K49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>163</v>
-      </c>
       <c r="B50">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C50">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
         <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G50">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I50" t="s">
         <v>164</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>165</v>
       </c>
       <c r="B51">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C51">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="I51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J51" t="s">
-        <v>167</v>
-      </c>
-      <c r="K51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>168</v>
       </c>
       <c r="B52">
-        <v>196</v>
-      </c>
-      <c r="C52">
-        <v>87</v>
+        <v>171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="I52" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="J52" t="s">
         <v>170</v>
       </c>
-      <c r="K52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>171</v>
       </c>
       <c r="B53">
-        <v>171</v>
-      </c>
-      <c r="C53" t="s">
-        <v>19</v>
+        <v>184</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="I53" t="s">
         <v>172</v>
       </c>
       <c r="J53" t="s">
-        <v>146</v>
-      </c>
-      <c r="K53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>188</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
         <v>174</v>
       </c>
-      <c r="B54">
-        <v>184</v>
-      </c>
-      <c r="C54">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" t="s">
-        <v>36</v>
-      </c>
       <c r="I54" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="J54" t="s">
-        <v>175</v>
-      </c>
-      <c r="K54" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>176</v>
       </c>
       <c r="B55">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
         <v>30</v>
       </c>
-      <c r="E55" t="s">
-        <v>86</v>
-      </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="I55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J55" t="s">
-        <v>178</v>
-      </c>
-      <c r="K55" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>179</v>
       </c>
       <c r="B56">
-        <v>264</v>
-      </c>
-      <c r="C56" t="s">
-        <v>19</v>
+        <v>188</v>
+      </c>
+      <c r="C56">
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="G56">
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="I56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J56" t="s">
-        <v>181</v>
-      </c>
-      <c r="K56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>182</v>
       </c>
       <c r="B57">
-        <v>188</v>
-      </c>
-      <c r="C57">
-        <v>80</v>
+        <v>196</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="I57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J57" t="s">
-        <v>184</v>
-      </c>
-      <c r="K57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>185</v>
       </c>
       <c r="B58">
-        <v>196</v>
-      </c>
-      <c r="C58" t="s">
-        <v>19</v>
+        <v>185</v>
+      </c>
+      <c r="C58">
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
         <v>13</v>
       </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G60">
+        <v>82</v>
+      </c>
+      <c r="H60" t="s">
         <v>14</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
         <v>186</v>
       </c>
-      <c r="J58" t="s">
-        <v>187</v>
-      </c>
-      <c r="K58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59">
-        <v>185</v>
-      </c>
-      <c r="C59">
-        <v>85</v>
-      </c>
-      <c r="D59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" t="s">
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60">
-        <v>157</v>
-      </c>
-      <c r="C60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" t="s">
-        <v>36</v>
-      </c>
-      <c r="I60" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>191</v>
       </c>
       <c r="B61">
         <v>183</v>
       </c>
-      <c r="C61" t="s">
-        <v>19</v>
+      <c r="C61">
+        <v>80</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" t="s">
+        <v>191</v>
+      </c>
+      <c r="J61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62">
+        <v>170</v>
+      </c>
+      <c r="C62">
+        <v>56.2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
         <v>13</v>
       </c>
-      <c r="G61">
-        <v>82</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="G62">
+        <v>58</v>
+      </c>
+      <c r="H62" t="s">
+        <v>194</v>
+      </c>
+      <c r="I62" t="s">
+        <v>195</v>
+      </c>
+      <c r="J62" t="s">
         <v>192</v>
       </c>
-      <c r="B62">
-        <v>183</v>
-      </c>
-      <c r="C62">
-        <v>80</v>
-      </c>
-      <c r="D62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s">
-        <v>193</v>
-      </c>
-      <c r="J62" t="s">
-        <v>194</v>
-      </c>
-      <c r="K62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>196</v>
       </c>
       <c r="B63">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C63">
-        <v>56.2</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
       </c>
       <c r="G63">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="I63" t="s">
+        <v>195</v>
+      </c>
+      <c r="J63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
         <v>197</v>
       </c>
-      <c r="J63" t="s">
+      <c r="B64">
+        <v>165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
         <v>198</v>
       </c>
-      <c r="K63" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B65">
+        <v>193</v>
+      </c>
+      <c r="C65">
+        <v>80</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65">
+        <v>102</v>
+      </c>
+      <c r="H65" t="s">
         <v>199</v>
       </c>
-      <c r="B64">
-        <v>166</v>
-      </c>
-      <c r="C64">
-        <v>50</v>
-      </c>
-      <c r="D64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" t="s">
-        <v>197</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66">
+        <v>191</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>67</v>
+      </c>
+      <c r="H66" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67">
+        <v>183</v>
+      </c>
+      <c r="C67">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67">
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68">
+        <v>168</v>
+      </c>
+      <c r="C68">
+        <v>55</v>
+      </c>
+      <c r="D68" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" t="s">
+        <v>208</v>
+      </c>
+      <c r="J68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69">
         <v>198</v>
       </c>
-      <c r="K64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65">
-        <v>165</v>
-      </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" t="s">
-        <v>36</v>
-      </c>
-      <c r="I65" t="s">
-        <v>27</v>
-      </c>
-      <c r="J65" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>201</v>
-      </c>
-      <c r="B66">
-        <v>193</v>
-      </c>
-      <c r="C66">
-        <v>80</v>
-      </c>
-      <c r="D66" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66">
+      <c r="C69">
         <v>102</v>
       </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" t="s">
-        <v>202</v>
-      </c>
-      <c r="J66" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67">
-        <v>191</v>
-      </c>
-      <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" t="s">
-        <v>47</v>
-      </c>
-      <c r="E67" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67">
-        <v>67</v>
-      </c>
-      <c r="H67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>37</v>
-      </c>
-      <c r="J67" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>205</v>
-      </c>
-      <c r="B68">
-        <v>183</v>
-      </c>
-      <c r="C68">
-        <v>79</v>
-      </c>
-      <c r="D68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" t="s">
-        <v>204</v>
-      </c>
-      <c r="F68" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68">
-        <v>66</v>
-      </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" t="s">
-        <v>206</v>
-      </c>
-      <c r="J68" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>207</v>
-      </c>
-      <c r="B69">
-        <v>168</v>
-      </c>
-      <c r="C69">
-        <v>55</v>
-      </c>
       <c r="D69" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="I69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J69" t="s">
-        <v>211</v>
-      </c>
-      <c r="K69" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>212</v>
       </c>
       <c r="B70">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="C70">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s">
         <v>213</v>
       </c>
       <c r="J70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
         <v>214</v>
       </c>
-      <c r="K70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B71">
+        <v>213</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s">
+        <v>86</v>
+      </c>
+      <c r="I71" t="s">
+        <v>213</v>
+      </c>
+      <c r="J71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
         <v>215</v>
       </c>
-      <c r="B71">
-        <v>229</v>
-      </c>
-      <c r="C71">
-        <v>88</v>
-      </c>
-      <c r="D71" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" t="s">
-        <v>85</v>
-      </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>89</v>
-      </c>
-      <c r="J71" t="s">
-        <v>216</v>
-      </c>
-      <c r="K71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>217</v>
-      </c>
       <c r="B72">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
         <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I72" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="J72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
         <v>216</v>
       </c>
-      <c r="K72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>79</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
         <v>218</v>
       </c>
-      <c r="B73">
-        <v>167</v>
-      </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" t="s">
-        <v>36</v>
-      </c>
       <c r="I73" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="J73" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B74">
-        <v>79</v>
-      </c>
-      <c r="C74">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>222</v>
-      </c>
-      <c r="K74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>223</v>
       </c>
       <c r="B75">
-        <v>96</v>
-      </c>
-      <c r="C75" t="s">
-        <v>19</v>
+        <v>193</v>
+      </c>
+      <c r="C75">
+        <v>48</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
         <v>224</v>
       </c>
       <c r="F75" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" t="s">
         <v>225</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" t="s">
+        <v>226</v>
+      </c>
+      <c r="J75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76">
+        <v>191</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" t="s">
         <v>19</v>
       </c>
-      <c r="H75" t="s">
-        <v>36</v>
-      </c>
-      <c r="I75" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>226</v>
-      </c>
-      <c r="B76">
-        <v>193</v>
-      </c>
-      <c r="C76">
-        <v>48</v>
-      </c>
-      <c r="D76" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" t="s">
-        <v>227</v>
-      </c>
-      <c r="F76" t="s">
-        <v>59</v>
-      </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="I76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J76" t="s">
-        <v>229</v>
-      </c>
-      <c r="K76" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>230</v>
       </c>
       <c r="B77">
-        <v>191</v>
-      </c>
-      <c r="C77" t="s">
-        <v>19</v>
+        <v>178</v>
+      </c>
+      <c r="C77">
+        <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="I77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J77" t="s">
-        <v>232</v>
-      </c>
-      <c r="K77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B78">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C78">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" t="s">
+        <v>236</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" t="s">
+        <v>237</v>
+      </c>
+      <c r="I78" t="s">
+        <v>238</v>
+      </c>
+      <c r="J78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79">
         <v>234</v>
       </c>
-      <c r="F78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" t="s">
-        <v>36</v>
-      </c>
-      <c r="I78" t="s">
-        <v>235</v>
-      </c>
-      <c r="J78" t="s">
-        <v>236</v>
-      </c>
-      <c r="K78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>237</v>
-      </c>
-      <c r="B79">
-        <v>216</v>
-      </c>
       <c r="C79">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" t="s">
+        <v>58</v>
+      </c>
+      <c r="I79" t="s">
+        <v>59</v>
+      </c>
+      <c r="J79" t="s">
         <v>239</v>
       </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" t="s">
-        <v>240</v>
-      </c>
-      <c r="J79" t="s">
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
         <v>241</v>
       </c>
-      <c r="K79" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>243</v>
-      </c>
       <c r="B80">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="C80">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
         <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I80" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>61</v>
-      </c>
-      <c r="K80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B81">
+        <v>178</v>
+      </c>
+      <c r="C81">
+        <v>48</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>243</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
         <v>244</v>
       </c>
-      <c r="B81">
-        <v>188</v>
-      </c>
-      <c r="C81">
-        <v>79</v>
-      </c>
-      <c r="D81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>37</v>
-      </c>
-      <c r="J81" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B82">
+        <v>206</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s">
         <v>245</v>
-      </c>
-      <c r="B82">
-        <v>178</v>
-      </c>
-      <c r="C82">
-        <v>48</v>
-      </c>
-      <c r="D82" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" t="s">
-        <v>86</v>
-      </c>
-      <c r="F82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" t="s">
-        <v>36</v>
       </c>
       <c r="I82" t="s">
         <v>246</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K82" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>247</v>
       </c>
-      <c r="B83">
-        <v>206</v>
-      </c>
-      <c r="C83">
-        <v>80</v>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" t="s">
         <v>248</v>
       </c>
-      <c r="J83" t="s">
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
         <v>249</v>
       </c>
-      <c r="K83" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
         <v>250</v>
       </c>
-      <c r="B84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E84" t="s">
-        <v>98</v>
-      </c>
-      <c r="F84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J84" t="s">
-        <v>16</v>
-      </c>
-      <c r="K84" t="s">
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
         <v>252</v>
       </c>
-      <c r="B85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88">
+        <v>165</v>
+      </c>
+      <c r="C88">
+        <v>45</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
         <v>34</v>
       </c>
-      <c r="E85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" t="s">
-        <v>36</v>
-      </c>
-      <c r="I85" t="s">
-        <v>19</v>
-      </c>
-      <c r="J85" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>253</v>
-      </c>
-      <c r="B86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" t="s">
-        <v>16</v>
-      </c>
-      <c r="K86" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>254</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" t="s">
-        <v>30</v>
-      </c>
-      <c r="F87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" t="s">
-        <v>19</v>
-      </c>
-      <c r="J87" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>255</v>
-      </c>
-      <c r="B88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" t="s">
-        <v>59</v>
-      </c>
-      <c r="E88" t="s">
-        <v>59</v>
-      </c>
       <c r="F88" t="s">
-        <v>59</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="G88">
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J88" t="s">
-        <v>19</v>
-      </c>
-      <c r="K88" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B89">
-        <v>165</v>
-      </c>
-      <c r="C89">
-        <v>45</v>
-      </c>
-      <c r="D89" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89">
-        <v>46</v>
-      </c>
-      <c r="H89" t="s">
-        <v>36</v>
-      </c>
-      <c r="I89" t="s">
-        <v>27</v>
-      </c>
-      <c r="J89" t="s">
-        <v>16</v>
-      </c>
-      <c r="K89" t="s">
-        <v>53</v>
-      </c>
-    </row>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C9AD6C-192F-4898-AF47-D19C02D8C3A5}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>